--- a/excel/rooms.xlsx
+++ b/excel/rooms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cipleu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cipleu\Documents\IULIA\SCOALA\facultate\Year 4 Semester 2\KBS\Lab\Project\University-Ontology\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682BA84D-644B-49E3-8DCE-311846204527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58779E7C-8CAB-46B8-A786-B861B20A6E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
   <si>
     <t>8 Gh. Baritiu Street, 5th floor</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>(https://goo.gl/maps/G1JPkvdFMdPTmfUv9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Observatorului Street 2nd floor 		</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/ePHbZLVs8tU51jhG9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Observatorului Street 2nd floor </t>
   </si>
 </sst>
 </file>
@@ -296,10 +305,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +313,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,7 +638,7 @@
   <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -651,728 +660,728 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>214</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>10</v>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>40</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>356</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>36</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>51</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" spans="1:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
     </row>
     <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
+      <c r="C29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
     </row>
     <row r="30" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1381,29 +1390,29 @@
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
     </row>
     <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1418,26 +1427,26 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
     </row>
     <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
@@ -1453,7 +1462,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1475,7 +1484,7 @@
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="1"/>
@@ -1489,7 +1498,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
@@ -1500,7 +1509,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
@@ -1511,7 +1520,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B37" t="s">
@@ -1522,7 +1531,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B38" t="s">
@@ -1533,7 +1542,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B39" t="s">
@@ -1544,7 +1553,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -1556,7 +1565,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B41" t="s">
@@ -1567,7 +1576,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B42" t="s">
@@ -1600,7 +1609,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
@@ -1633,7 +1642,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B48" t="s">
@@ -1644,7 +1653,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B49" t="s">
@@ -1655,7 +1664,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
@@ -1666,7 +1675,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B51" t="s">
@@ -1677,7 +1686,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B52" t="s">
@@ -1688,7 +1697,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B53" t="s">
@@ -1787,7 +1796,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B62" t="s">
@@ -1798,7 +1807,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B63" t="s">
@@ -1809,7 +1818,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B64" t="s">
@@ -1820,7 +1829,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B65" t="s">
@@ -1837,6 +1846,7 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C29" r:id="rId1" xr:uid="{D63C7B95-6B9E-4372-A451-9A265F51D209}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A20A4BC2-4449-4FB7-96AE-6054AFB403A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/rooms.xlsx
+++ b/excel/rooms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cipleu\Documents\IULIA\SCOALA\facultate\Year 4 Semester 2\KBS\Lab\Project\University-Ontology\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58779E7C-8CAB-46B8-A786-B861B20A6E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B774B-B7B9-4361-965C-EF74F67A248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,27 +188,32 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -637,8 +642,8 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1738,7 @@
       <c r="A56">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C56" t="s">
@@ -1832,7 +1837,7 @@
       <c r="A65" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C65" t="s">
